--- a/data/trans_bre/P36B13_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36B13_R-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-4.134631121561619</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-1.670122038906134</v>
+        <v>-1.670122038906136</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.3082444487184666</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.3314226618960864</v>
+        <v>-0.3314226618960865</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.337557668748991</v>
+        <v>-7.778093866096322</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.312103291736397</v>
+        <v>-4.17816356888877</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4858623978819273</v>
+        <v>-0.5014455579790037</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.6296464820791103</v>
+        <v>-0.6048469205593693</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.8066444953219429</v>
+        <v>-1.062462985303595</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5160528931437636</v>
+        <v>0.5714146850900621</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-0.07121431972792479</v>
+        <v>-0.0811202845071293</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1691166321995885</v>
+        <v>0.1679709199241391</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-4.13023721867393</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-4.189557323288096</v>
+        <v>-4.189557323288098</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.3280580680491728</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.5838813183359416</v>
+        <v>-0.5838813183359417</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.933145417662605</v>
+        <v>-6.801836839483505</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.466570290225761</v>
+        <v>-6.600050407864851</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.486312702064854</v>
+        <v>-0.4897545655130758</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7288820568545512</v>
+        <v>-0.7350013385319712</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-1.316793578338906</v>
+        <v>-1.481811320404024</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-1.927567944472707</v>
+        <v>-2.052463455880132</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1118716945681305</v>
+        <v>-0.1334172844185121</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.3355268793194078</v>
+        <v>-0.3456908618088421</v>
       </c>
     </row>
     <row r="10">
@@ -726,7 +726,7 @@
         <v>-0.4581779348341071</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.4921248155331518</v>
+        <v>-0.4921248155331517</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.233156458574848</v>
+        <v>-8.758318980622466</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.929329294497282</v>
+        <v>-6.481061497340123</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.612074623985262</v>
+        <v>-0.6065957142066585</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.7090970782014112</v>
+        <v>-0.6904720135029447</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.910332400061959</v>
+        <v>-2.614581707897762</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.7383046589347133</v>
+        <v>-0.8326311117803125</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>-0.2535314761971093</v>
+        <v>-0.2420639363812401</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.08013317047335544</v>
+        <v>-0.1339052013156742</v>
       </c>
     </row>
     <row r="13">
@@ -784,7 +784,7 @@
         <v>-4.073846671758617</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-4.393178737914559</v>
+        <v>-4.393178737914558</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.3723509334426811</v>
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.781231025220308</v>
+        <v>-6.779078679338653</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-7.12086374027369</v>
+        <v>-7.51715724152124</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5375771313521336</v>
+        <v>-0.5365233190093001</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6255335501434942</v>
+        <v>-0.6287030637772927</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.571309797412379</v>
+        <v>-1.499043737589697</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.826349862342629</v>
+        <v>-1.94032292576607</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1578849728176398</v>
+        <v>-0.1483744011826035</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2142799094253771</v>
+        <v>-0.2276866391622881</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.925778275153623</v>
+        <v>-6.123922146074657</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.057584583346848</v>
+        <v>-4.892335364312419</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.4471850314601059</v>
+        <v>-0.4601650290278623</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.591551284660419</v>
+        <v>-0.5851715341054223</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.218125325599937</v>
+        <v>-3.185858211693604</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.445462397974991</v>
+        <v>-2.429376578986798</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.2729712349541538</v>
+        <v>-0.2736605227851167</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.3520271266071458</v>
+        <v>-0.3532468588964363</v>
       </c>
     </row>
     <row r="19">
